--- a/PrimeNumbersDecent/PrimeNumbersDecent.xlsx
+++ b/PrimeNumbersDecent/PrimeNumbersDecent.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grabde\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grabde\Desktop\c#\projekt02\PrimeNumbersDecent\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B886B83-EF9E-4347-93D5-78DAA417A4EA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F89A41F7-7B9E-404D-9574-4EEE0A82FB93}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="22320" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PrimeNumber to Counter" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -3296,7 +3296,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{933BB05B-7AB7-4B28-A11A-776517FDC3AD}" name="Tabela przestawna1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{933BB05B-7AB7-4B28-A11A-776517FDC3AD}" name="Tabela przestawna1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:B12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" numFmtId="1" showAll="0">
@@ -3390,7 +3390,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7AFEDC7A-8A3D-43A3-8A7B-EEA619B35B7F}" name="Tabela przestawna2" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7AFEDC7A-8A3D-43A3-8A7B-EEA619B35B7F}" name="Tabela przestawna2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:B12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" numFmtId="1" showAll="0">
@@ -3770,7 +3770,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FAD40E2-2C62-427C-B322-9180904D3B37}">
   <dimension ref="A3:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
@@ -3975,7 +3975,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
